--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Data\Output\국립공원채용_박건후.xlsx</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>rpa.sj.jeong@gmail.com</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -193,19 +189,58 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>가야산,덕유산,무등산,북한산,속리산,오대산</t>
+    <t>https://www.knps.or.kr/front/portal/recruit/recruitList.do?menuNo=7070064</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>산목록</t>
+    <t>Data\Output\{0}_{1}_{2}.xlsx</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>대상</t>
+    <t>test</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://www.knps.or.kr/front/portal/recruit/recruitList.do?menuNo=7070064</t>
+    <t>메일제목</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sbfpdl@gmail.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[{0}] {1} 채용공고 검색결과_{2}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+  &lt;head&gt;
+  &lt;/head&gt;
+  &lt;body&gt;
+    &lt;p&gt;
+      안녕하세요. {0} 부동산 공시가격 수행 결과 송부드립니다.
+    &lt;/p&gt;
+    &lt;p&gt;
+      {0} 국립공원 채용공고 검색 결과 파일 송부드립니다.
+    &lt;/p&gt;
+    &lt;p&gt;
+      현재 채용진행중인 내용은 아래와 같습니다.
+    &lt;/p&gt;
+    &lt;p&gt;
+      {1}
+    &lt;/p&gt;
+    &lt;p&gt;
+      각 공원별 채용 정보는 첨부파일을 참고 부탁드립니다.
+    &lt;/p&gt;
+    &lt;p&gt;
+      감사합니다.
+    &lt;/p&gt;
+  &lt;/body&gt;
+&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -335,7 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -359,6 +394,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
@@ -676,16 +712,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="5" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="5"/>
@@ -743,10 +779,10 @@
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -779,53 +815,62 @@
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="409.5">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\004_국립공원채용\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\004_국립공원채용\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,7 +222,7 @@
   &lt;/head&gt;
   &lt;body&gt;
     &lt;p&gt;
-      안녕하세요. {0} 부동산 공시가격 수행 결과 송부드립니다.
+      안녕하세요.
     &lt;/p&gt;
     &lt;p&gt;
       {0} 국립공원 채용공고 검색 결과 파일 송부드립니다.
@@ -859,7 +859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="409.5">
+    <row r="14" spans="1:26" ht="396">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +241,26 @@
     &lt;/p&gt;
   &lt;/body&gt;
 &lt;/html&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>국립공원</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>박건후</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -712,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
@@ -763,115 +783,138 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="396">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:2" ht="396">
+      <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -261,6 +261,20 @@
   </si>
   <si>
     <t>박건후</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{1} : 테이블 형식
+&lt;table class='table' style='width: %; heignt: px; border-collapse: collapse' border='' bordercolor=''&gt;
+    &lt;tr style='background-color: '&gt;
+        &lt;th&gt;
+        &lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+        &lt;td&gt;
+        &lt;/td&gt;
+    &lt;/tr&gt;
+&lt;/table&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -734,15 +748,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="97.7109375" style="5" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="5"/>
   </cols>
@@ -902,12 +916,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="396">
+    <row r="17" spans="1:3" ht="396">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
